--- a/assets/Yield literature review.xlsx
+++ b/assets/Yield literature review.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{B85B0528-011E-A54E-B214-FC63046F9EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{1E3B5F38-A4B1-4BD9-8723-8054C5147179}"/>
+    <workbookView xWindow="4860" yWindow="500" windowWidth="24340" windowHeight="17280" xr2:uid="{1E3B5F38-A4B1-4BD9-8723-8054C5147179}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292A0D01-3C68-46D2-A30C-693F7D9F8257}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1136,18 +1136,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1170,26 +1170,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7706B80-5FD8-4F7A-909A-9C9AE34E7BA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29AB1478-66FD-4ECB-86BE-825A8C2873E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2827a15f-a7c2-423b-b2d6-0a02eb2a8067"/>
-    <ds:schemaRef ds:uri="cb1e8fca-5221-454e-97b5-601ec6e20b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29AB1478-66FD-4ECB-86BE-825A8C2873E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7706B80-5FD8-4F7A-909A-9C9AE34E7BA6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="cb1e8fca-5221-454e-97b5-601ec6e20b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2827a15f-a7c2-423b-b2d6-0a02eb2a8067"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>